--- a/data/form2.xlsx
+++ b/data/form2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dflores/Dropbox/EXTS/Projects/autoHiring/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45F32F0-3D03-6646-9F03-915C4F36E435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824845E5-5C22-204C-9302-CDD7CF785D87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="460" windowWidth="24820" windowHeight="28340" xr2:uid="{7A64A84C-17F9-2548-864F-7F5C3007427B}"/>
+    <workbookView xWindow="1560" yWindow="14620" windowWidth="24820" windowHeight="14180" xr2:uid="{7A64A84C-17F9-2548-864F-7F5C3007427B}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
@@ -350,10 +350,10 @@
     <t>MBA</t>
   </si>
   <si>
-    <t>Justin</t>
-  </si>
-  <si>
-    <t>CASE</t>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>MIGUEL</t>
   </si>
 </sst>
 </file>
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D2E135-155D-3F42-BE22-6B196658E3B7}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D23" s="23"/>
     </row>
-    <row r="24" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>97</v>
       </c>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="B3" s="8" t="str">
         <f>Details!D5</f>
-        <v>CASE</v>
+        <v>MIGUEL</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B4" s="8" t="str">
         <f>Details!D6</f>
-        <v>Justin</v>
+        <v>Luis</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B10" s="8" t="str">
         <f>Details!D5</f>
-        <v>CASE</v>
+        <v>MIGUEL</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="B11" s="8" t="str">
         <f>Details!D6</f>
-        <v>Justin</v>
+        <v>Luis</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
